--- a/origin_data/2024_황사.xlsx
+++ b/origin_data/2024_황사.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joonkyo/Desktop/기본 폴더/대학교/3학년 1학기/데과 예시데이터/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joonkyo/DataScience/origin_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE5D1D4E-65ED-8047-8498-9C7C3F0A32A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF18B3DF-FB4C-3D4D-AC73-DBAC46BC79E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="2800" windowWidth="27900" windowHeight="16940" xr2:uid="{18766523-3520-0F4C-8A2E-A56396DEC7B0}"/>
+    <workbookView xWindow="6660" yWindow="2800" windowWidth="27900" windowHeight="16940" xr2:uid="{18766523-3520-0F4C-8A2E-A56396DEC7B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,9 +142,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -182,7 +182,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -288,7 +288,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -441,7 +441,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -610,6 +610,9 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
